--- a/linreg/rifreg2_coefs_3.xlsx
+++ b/linreg/rifreg2_coefs_3.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.16748304503073741</v>
+        <v>-0.16871734061644869</v>
       </c>
       <c r="C2">
-        <v>0.0052982067320500696</v>
+        <v>0.0051709003873224657</v>
       </c>
       <c r="D2">
-        <v>-0.17786736056792046</v>
+        <v>-0.17885213866632696</v>
       </c>
       <c r="E2">
-        <v>-0.15709872949355436</v>
+        <v>-0.15858254256657042</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.070969676446495281</v>
+        <v>0.072298293744714623</v>
       </c>
       <c r="C3">
-        <v>0.0024808663009897257</v>
+        <v>0.0023960878782690047</v>
       </c>
       <c r="D3">
-        <v>0.066107257938134587</v>
+        <v>0.067602038752923532</v>
       </c>
       <c r="E3">
-        <v>0.075832094954855975</v>
+        <v>0.076994548736505714</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.15359958041191157</v>
+        <v>0.15264453703336431</v>
       </c>
       <c r="C4">
-        <v>0.0082804324232751969</v>
+        <v>0.0080469436628659834</v>
       </c>
       <c r="D4">
-        <v>0.13737019801589101</v>
+        <v>0.13687278688674742</v>
       </c>
       <c r="E4">
-        <v>0.16982896280793214</v>
+        <v>0.16841628717998119</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.079657310858976538</v>
+        <v>-0.08050651863871805</v>
       </c>
       <c r="C5">
-        <v>0.0034841522007864217</v>
+        <v>0.0033993666233672979</v>
       </c>
       <c r="D5">
-        <v>-0.086486137167745419</v>
+        <v>-0.087169167225535624</v>
       </c>
       <c r="E5">
-        <v>-0.072828484550207656</v>
+        <v>-0.073843870051900476</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.050891359104937361</v>
+        <v>0.052555420623410738</v>
       </c>
       <c r="C6">
-        <v>0.0024162396072251553</v>
+        <v>0.0023524535481884903</v>
       </c>
       <c r="D6">
-        <v>0.046155607149444652</v>
+        <v>0.047944687788460935</v>
       </c>
       <c r="E6">
-        <v>0.055627111060430071</v>
+        <v>0.057166153458360541</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.071525620820917096</v>
+        <v>0.071692139581435901</v>
       </c>
       <c r="C7">
-        <v>0.0057871418078843254</v>
+        <v>0.0056070914608644775</v>
       </c>
       <c r="D7">
-        <v>0.060183008916265893</v>
+        <v>0.060702421749565215</v>
       </c>
       <c r="E7">
-        <v>0.0828682327255683</v>
+        <v>0.082681857413306581</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.23378675204882382</v>
+        <v>-0.23400773335865468</v>
       </c>
       <c r="C8">
-        <v>0.0051211783673355956</v>
+        <v>0.0049843625338476267</v>
       </c>
       <c r="D8">
-        <v>-0.2438240976599173</v>
+        <v>-0.24377692322968264</v>
       </c>
       <c r="E8">
-        <v>-0.22374940643773034</v>
+        <v>-0.22423854348762673</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.18428203097224183</v>
+        <v>0.18680527724265322</v>
       </c>
       <c r="C9">
-        <v>0.0028554322469703003</v>
+        <v>0.0027590478545884661</v>
       </c>
       <c r="D9">
-        <v>0.17868547520400099</v>
+        <v>0.18139763239906667</v>
       </c>
       <c r="E9">
-        <v>0.18987858674048266</v>
+        <v>0.19221292208623977</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.15956494839913618</v>
+        <v>0.15480815279338198</v>
       </c>
       <c r="C10">
-        <v>0.0093256419275012103</v>
+        <v>0.0090480825621482939</v>
       </c>
       <c r="D10">
-        <v>0.14128698884422741</v>
+        <v>0.13707420268078249</v>
       </c>
       <c r="E10">
-        <v>0.17784290795404495</v>
+        <v>0.17254210290598146</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.11707844326965061</v>
+        <v>-0.11634890942876018</v>
       </c>
       <c r="C11">
-        <v>0.0033498401511400148</v>
+        <v>0.0032372222466023372</v>
       </c>
       <c r="D11">
-        <v>-0.12364402227883164</v>
+        <v>-0.122693760283704</v>
       </c>
       <c r="E11">
-        <v>-0.11051286426046958</v>
+        <v>-0.11000405857381636</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.098144153948819091</v>
+        <v>0.098827816212832181</v>
       </c>
       <c r="C12">
-        <v>0.0026114686824072275</v>
+        <v>0.0025247715698797362</v>
       </c>
       <c r="D12">
-        <v>0.093025759281983575</v>
+        <v>0.093879345631146749</v>
       </c>
       <c r="E12">
-        <v>0.10326254861565461</v>
+        <v>0.10377628679451761</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.093020559621959542</v>
+        <v>0.090959079419366567</v>
       </c>
       <c r="C13">
-        <v>0.006309736528228943</v>
+        <v>0.0060698063383603906</v>
       </c>
       <c r="D13">
-        <v>0.080653678865245118</v>
+        <v>0.079062455399897383</v>
       </c>
       <c r="E13">
-        <v>0.10538744037867397</v>
+        <v>0.10285570343883575</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.22865176084886624</v>
+        <v>-0.22975968811275235</v>
       </c>
       <c r="C14">
-        <v>0.0043006802461183951</v>
+        <v>0.0041807709061189189</v>
       </c>
       <c r="D14">
-        <v>-0.23708095641612623</v>
+        <v>-0.23795386430113991</v>
       </c>
       <c r="E14">
-        <v>-0.22022256528160625</v>
+        <v>-0.2215655119243648</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.25561595362021533</v>
+        <v>0.25748704716001219</v>
       </c>
       <c r="C15">
-        <v>0.0029310830693637002</v>
+        <v>0.0028337734542679266</v>
       </c>
       <c r="D15">
-        <v>0.24987112466255207</v>
+        <v>0.25193294255019921</v>
       </c>
       <c r="E15">
-        <v>0.26136078257787859</v>
+        <v>0.26304115176982518</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.080967741636838397</v>
+        <v>0.079363898242537867</v>
       </c>
       <c r="C16">
-        <v>0.0090797626213501813</v>
+        <v>0.0087702447123156908</v>
       </c>
       <c r="D16">
-        <v>0.063171697648510008</v>
+        <v>0.06217450135814781</v>
       </c>
       <c r="E16">
-        <v>0.098763785625166786</v>
+        <v>0.096553295126927924</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.13543778960788808</v>
+        <v>-0.13436223656825358</v>
       </c>
       <c r="C17">
-        <v>0.0032425640358435372</v>
+        <v>0.0031421290444190743</v>
       </c>
       <c r="D17">
-        <v>-0.14179311087968505</v>
+        <v>-0.14052070782389584</v>
       </c>
       <c r="E17">
-        <v>-0.12908246833609111</v>
+        <v>-0.12820376531261132</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.14408807302327306</v>
+        <v>0.14391411245492072</v>
       </c>
       <c r="C18">
-        <v>0.0028577214303348261</v>
+        <v>0.0027668719737981391</v>
       </c>
       <c r="D18">
-        <v>0.13848703088676756</v>
+        <v>0.13849113291531739</v>
       </c>
       <c r="E18">
-        <v>0.14968911515977856</v>
+        <v>0.14933709199452405</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.092379685658212196</v>
+        <v>0.092515231993750127</v>
       </c>
       <c r="C19">
-        <v>0.0067906372124740778</v>
+        <v>0.0065310053270641799</v>
       </c>
       <c r="D19">
-        <v>0.079070255019854582</v>
+        <v>0.079714672879664647</v>
       </c>
       <c r="E19">
-        <v>0.10568911629656981</v>
+        <v>0.10531579110783561</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.2040152897067187</v>
+        <v>-0.20464924475422708</v>
       </c>
       <c r="C20">
-        <v>0.0037567095625064555</v>
+        <v>0.003660859694425389</v>
       </c>
       <c r="D20">
-        <v>-0.21137832015297031</v>
+        <v>-0.211824411729577</v>
       </c>
       <c r="E20">
-        <v>-0.19665225926046709</v>
+        <v>-0.19747407777887716</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.29414591346580898</v>
+        <v>0.29697011679615293</v>
       </c>
       <c r="C21">
-        <v>0.0030538844215840886</v>
+        <v>0.0029605726905088743</v>
       </c>
       <c r="D21">
-        <v>0.28816039779010294</v>
+        <v>0.29116748977130147</v>
       </c>
       <c r="E21">
-        <v>0.30013142914151503</v>
+        <v>0.30277274382100439</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.015439905444834767</v>
+        <v>0.013865777397149342</v>
       </c>
       <c r="C22">
-        <v>0.0088746619157488646</v>
+        <v>0.0085912290839792217</v>
       </c>
       <c r="D22">
-        <v>-0.0019541477281901885</v>
+        <v>-0.0029727546271458936</v>
       </c>
       <c r="E22">
-        <v>0.032833958617859718</v>
+        <v>0.03070430942144458</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.13677933228010086</v>
+        <v>-0.13544070058445148</v>
       </c>
       <c r="C23">
-        <v>0.0030158889323232737</v>
+        <v>0.0029267347348871852</v>
       </c>
       <c r="D23">
-        <v>-0.1426903776359052</v>
+        <v>-0.14117700596303115</v>
       </c>
       <c r="E23">
-        <v>-0.13086828692429653</v>
+        <v>-0.12970439520587182</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.16515852311339901</v>
+        <v>0.16581280688725653</v>
       </c>
       <c r="C24">
-        <v>0.0029519064343840693</v>
+        <v>0.0028606631839400844</v>
       </c>
       <c r="D24">
-        <v>0.15937288139671507</v>
+        <v>0.16020599961062343</v>
       </c>
       <c r="E24">
-        <v>0.17094416483008296</v>
+        <v>0.17141961416388962</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.075219329321008263</v>
+        <v>0.075267455317642992</v>
       </c>
       <c r="C25">
-        <v>0.006859399194850002</v>
+        <v>0.006622149288301021</v>
       </c>
       <c r="D25">
-        <v>0.061775127407679986</v>
+        <v>0.062288256988723409</v>
       </c>
       <c r="E25">
-        <v>0.08866353123433654</v>
+        <v>0.088246653646562576</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.17836895797345237</v>
+        <v>-0.17861947591041044</v>
       </c>
       <c r="C26">
-        <v>0.0034889346573728692</v>
+        <v>0.00339105072945444</v>
       </c>
       <c r="D26">
-        <v>-0.1852071581802523</v>
+        <v>-0.18526582601302941</v>
       </c>
       <c r="E26">
-        <v>-0.17153075776665244</v>
+        <v>-0.17197312580779148</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.30875102833546481</v>
+        <v>0.30961473110705279</v>
       </c>
       <c r="C27">
-        <v>0.003283886070197215</v>
+        <v>0.0031748136198210576</v>
       </c>
       <c r="D27">
-        <v>0.30231471679352295</v>
+        <v>0.30339219876785406</v>
       </c>
       <c r="E27">
-        <v>0.31518733987740666</v>
+        <v>0.31583726344625151</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.036893153333134081</v>
+        <v>-0.036188649413826712</v>
       </c>
       <c r="C28">
-        <v>0.0090706074159989658</v>
+        <v>0.008759648878189143</v>
       </c>
       <c r="D28">
-        <v>-0.054671253412139409</v>
+        <v>-0.053357278804937291</v>
       </c>
       <c r="E28">
-        <v>-0.019115053254128749</v>
+        <v>-0.01902002002271613</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.13593049419602213</v>
+        <v>-0.13401561457624683</v>
       </c>
       <c r="C29">
-        <v>0.0030255316788788543</v>
+        <v>0.0029288968040997627</v>
       </c>
       <c r="D29">
-        <v>-0.14186043902509077</v>
+        <v>-0.13975615754052401</v>
       </c>
       <c r="E29">
-        <v>-0.13000054936695349</v>
+        <v>-0.12827507161196966</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.18387104512890678</v>
+        <v>0.18425711247726678</v>
       </c>
       <c r="C30">
-        <v>0.0032759158576227509</v>
+        <v>0.0031651841445562612</v>
       </c>
       <c r="D30">
-        <v>0.177450355358581</v>
+        <v>0.17805345397136088</v>
       </c>
       <c r="E30">
-        <v>0.19029173489923257</v>
+        <v>0.19046077098317268</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.056066905801483678</v>
+        <v>0.057419976799565939</v>
       </c>
       <c r="C31">
-        <v>0.0074940209734601767</v>
+        <v>0.00722138737202822</v>
       </c>
       <c r="D31">
-        <v>0.041378865603216908</v>
+        <v>0.04326629121638325</v>
       </c>
       <c r="E31">
-        <v>0.070754945999750449</v>
+        <v>0.071573662382748621</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.15057476156206467</v>
+        <v>-0.14932958267541563</v>
       </c>
       <c r="C32">
-        <v>0.0032470212855729374</v>
+        <v>0.0031383291014187315</v>
       </c>
       <c r="D32">
-        <v>-0.15693881930661638</v>
+        <v>-0.15548060653480278</v>
       </c>
       <c r="E32">
-        <v>-0.14421070381751297</v>
+        <v>-0.14317855881602848</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.27430681284939101</v>
+        <v>0.27338298526217641</v>
       </c>
       <c r="C33">
-        <v>0.0034106817970307114</v>
+        <v>0.0032840657916777031</v>
       </c>
       <c r="D33">
-        <v>0.26762198574307139</v>
+        <v>0.26694632218841696</v>
       </c>
       <c r="E33">
-        <v>0.28099163995571064</v>
+        <v>0.27981964833593587</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.073018645397291235</v>
+        <v>-0.072668202623170045</v>
       </c>
       <c r="C34">
-        <v>0.0089760760848158119</v>
+        <v>0.0086118897771779186</v>
       </c>
       <c r="D34">
-        <v>-0.090611467094232373</v>
+        <v>-0.089547228940036194</v>
       </c>
       <c r="E34">
-        <v>-0.055425823700350089</v>
+        <v>-0.055789176306303895</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.11740815814529333</v>
+        <v>-0.11624772120932625</v>
       </c>
       <c r="C35">
-        <v>0.0029225560389182308</v>
+        <v>0.0028148635300886318</v>
       </c>
       <c r="D35">
-        <v>-0.12313627403038913</v>
+        <v>-0.1217647626463725</v>
       </c>
       <c r="E35">
-        <v>-0.11168004226019754</v>
+        <v>-0.11073067977228</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.17504080965351004</v>
+        <v>0.17421124312382033</v>
       </c>
       <c r="C36">
-        <v>0.0034656026177212426</v>
+        <v>0.0033318940299028646</v>
       </c>
       <c r="D36">
-        <v>0.16824833993123689</v>
+        <v>0.16768083863694905</v>
       </c>
       <c r="E36">
-        <v>0.1818332793757832</v>
+        <v>0.18074164761069161</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.033598944061257165</v>
+        <v>0.036145333795582969</v>
       </c>
       <c r="C37">
-        <v>0.0078452162594546179</v>
+        <v>0.0075162082658978887</v>
       </c>
       <c r="D37">
-        <v>0.018222572392289107</v>
+        <v>0.021413808800080793</v>
       </c>
       <c r="E37">
-        <v>0.048975315730225219</v>
+        <v>0.050876858791085146</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.13438810928831543</v>
+        <v>-0.13424321856461993</v>
       </c>
       <c r="C38">
-        <v>0.0033264563686080471</v>
+        <v>0.003219635727704485</v>
       </c>
       <c r="D38">
-        <v>-0.1409078572519688</v>
+        <v>-0.14055360079021026</v>
       </c>
       <c r="E38">
-        <v>-0.12786836132466206</v>
+        <v>-0.1279328363390296</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.21078447882834178</v>
+        <v>0.2096707101331087</v>
       </c>
       <c r="C39">
-        <v>0.0037143051168453053</v>
+        <v>0.0035780295414315935</v>
       </c>
       <c r="D39">
-        <v>0.20350455973772319</v>
+        <v>0.20265788758719136</v>
       </c>
       <c r="E39">
-        <v>0.21806439791896037</v>
+        <v>0.21668353267902604</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.082258675689280303</v>
+        <v>-0.080753835439181201</v>
       </c>
       <c r="C40">
-        <v>0.0092774405993511482</v>
+        <v>0.0089050522530341042</v>
       </c>
       <c r="D40">
-        <v>-0.10044216218450387</v>
+        <v>-0.098207450757198694</v>
       </c>
       <c r="E40">
-        <v>-0.064075189194056734</v>
+        <v>-0.063300220121163708</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.10350297849427316</v>
+        <v>-0.10429282752037414</v>
       </c>
       <c r="C41">
-        <v>0.0030349942954523328</v>
+        <v>0.0029455391980534812</v>
       </c>
       <c r="D41">
-        <v>-0.10945146974763181</v>
+        <v>-0.11006598903829445</v>
       </c>
       <c r="E41">
-        <v>-0.097554487240914506</v>
+        <v>-0.098519666002453821</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.15868192901160705</v>
+        <v>0.15879694109617012</v>
       </c>
       <c r="C42">
-        <v>0.0038360730892325009</v>
+        <v>0.0037147631256972363</v>
       </c>
       <c r="D42">
-        <v>0.15116334907465756</v>
+        <v>0.15151612557022603</v>
       </c>
       <c r="E42">
-        <v>0.16620050894855654</v>
+        <v>0.16607775662211421</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0020358417422192622</v>
+        <v>0.0024578771093723855</v>
       </c>
       <c r="C43">
-        <v>0.0085798227668970467</v>
+        <v>0.0082825162760759487</v>
       </c>
       <c r="D43">
-        <v>-0.018852018550435654</v>
+        <v>-0.013775586790272578</v>
       </c>
       <c r="E43">
-        <v>0.01478033506599713</v>
+        <v>0.01869134100901735</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.12336710052505312</v>
+        <v>-0.12270543176395916</v>
       </c>
       <c r="C44">
-        <v>0.0034895562251377374</v>
+        <v>0.0033980907465031586</v>
       </c>
       <c r="D44">
-        <v>-0.13020651898476851</v>
+        <v>-0.12936558007302423</v>
       </c>
       <c r="E44">
-        <v>-0.11652768206533771</v>
+        <v>-0.11604528345489411</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.091396643251606291</v>
+        <v>0.093486384552233528</v>
       </c>
       <c r="C45">
-        <v>0.0038583496971694793</v>
+        <v>0.0037343649703510348</v>
       </c>
       <c r="D45">
-        <v>0.083834401396105984</v>
+        <v>0.086167149605871532</v>
       </c>
       <c r="E45">
-        <v>0.098958885107106598</v>
+        <v>0.10080561949859553</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03998243071086964</v>
+        <v>-0.040763452088517081</v>
       </c>
       <c r="C46">
-        <v>0.0091489672861314649</v>
+        <v>0.0088330611513038858</v>
       </c>
       <c r="D46">
-        <v>-0.057914113626117703</v>
+        <v>-0.058075967168128753</v>
       </c>
       <c r="E46">
-        <v>-0.022050747795621582</v>
+        <v>-0.023450937008905413</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.089527244459939759</v>
+        <v>-0.089564483846114526</v>
       </c>
       <c r="C47">
-        <v>0.0033162793300484934</v>
+        <v>0.0032199918468140518</v>
       </c>
       <c r="D47">
-        <v>-0.096027045338658551</v>
+        <v>-0.095875563675005854</v>
       </c>
       <c r="E47">
-        <v>-0.083027443581220967</v>
+        <v>-0.083253404017223198</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.12587236853851352</v>
+        <v>0.12712963168739472</v>
       </c>
       <c r="C48">
-        <v>0.0044219872839807812</v>
+        <v>0.0042853762058696534</v>
       </c>
       <c r="D48">
-        <v>0.1172054156151959</v>
+        <v>0.11873043298792155</v>
       </c>
       <c r="E48">
-        <v>0.13453932146183115</v>
+        <v>0.13552883038686789</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.030186265607524802</v>
+        <v>-0.02830752608627763</v>
       </c>
       <c r="C49">
-        <v>0.0095528815789803333</v>
+        <v>0.0092274731408528068</v>
       </c>
       <c r="D49">
-        <v>-0.048909606406577731</v>
+        <v>-0.046393074864449935</v>
       </c>
       <c r="E49">
-        <v>-0.011462924808471872</v>
+        <v>-0.01022197730810533</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.10358121393203766</v>
+        <v>-0.1023768530504954</v>
       </c>
       <c r="C50">
-        <v>0.0036973599181424534</v>
+        <v>0.0036034088894506167</v>
       </c>
       <c r="D50">
-        <v>-0.11082792097581289</v>
+        <v>-0.10943941830030257</v>
       </c>
       <c r="E50">
-        <v>-0.096334506888262436</v>
+        <v>-0.095314287800688235</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0057229755916399505</v>
+        <v>-0.0048583653088437716</v>
       </c>
       <c r="C51">
-        <v>0.0038038041887390856</v>
+        <v>0.0036653599854777814</v>
       </c>
       <c r="D51">
-        <v>-0.013178309997257099</v>
+        <v>-0.012042352709567494</v>
       </c>
       <c r="E51">
-        <v>0.001732358813977198</v>
+        <v>0.0023256220918799518</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02227211362756306</v>
+        <v>0.022556672560105961</v>
       </c>
       <c r="C52">
-        <v>0.0087480255504611189</v>
+        <v>0.0084151884827086843</v>
       </c>
       <c r="D52">
-        <v>0.0051262636753892261</v>
+        <v>0.0060631744387708783</v>
       </c>
       <c r="E52">
-        <v>0.039417963579736898</v>
+        <v>0.039050170681441045</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.070750389585269483</v>
+        <v>-0.07047784975920611</v>
       </c>
       <c r="C53">
-        <v>0.003966603552408814</v>
+        <v>0.0038723020418311785</v>
       </c>
       <c r="D53">
-        <v>-0.078524805033891795</v>
+        <v>-0.078067436463208323</v>
       </c>
       <c r="E53">
-        <v>-0.06297597413664717</v>
+        <v>-0.062888263055203897</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.063025339088607857</v>
+        <v>0.065378953403071413</v>
       </c>
       <c r="C54">
-        <v>0.0054914008263386247</v>
+        <v>0.0053416541052417601</v>
       </c>
       <c r="D54">
-        <v>0.052262370000623663</v>
+        <v>0.054909484199333829</v>
       </c>
       <c r="E54">
-        <v>0.073788308176592043</v>
+        <v>0.075848422606808991</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.037841308139939987</v>
+        <v>-0.034296215605137147</v>
       </c>
       <c r="C55">
-        <v>0.011281852372935042</v>
+        <v>0.010950843475198471</v>
       </c>
       <c r="D55">
-        <v>-0.059953376114053172</v>
+        <v>-0.055759514474683108</v>
       </c>
       <c r="E55">
-        <v>-0.015729240165826806</v>
+        <v>-0.012832916735591181</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifreg2_coefs_3.xlsx
+++ b/linreg/rifreg2_coefs_3.xlsx
@@ -261,13 +261,13 @@
         <v>-0.16871734061644869</v>
       </c>
       <c r="C2">
-        <v>0.0051709003873224657</v>
+        <v>0.0051847438433518765</v>
       </c>
       <c r="D2">
-        <v>-0.17885213866632696</v>
+        <v>-0.17887927139383306</v>
       </c>
       <c r="E2">
-        <v>-0.15858254256657042</v>
+        <v>-0.15855540983906433</v>
       </c>
     </row>
     <row r="3">
@@ -278,13 +278,13 @@
         <v>0.072298293744714623</v>
       </c>
       <c r="C3">
-        <v>0.0023960878782690047</v>
+        <v>0.0026342403628657335</v>
       </c>
       <c r="D3">
-        <v>0.067602038752923532</v>
+        <v>0.067135267561124493</v>
       </c>
       <c r="E3">
-        <v>0.076994548736505714</v>
+        <v>0.077461319928304753</v>
       </c>
     </row>
     <row r="4">
@@ -295,13 +295,13 @@
         <v>0.15264453703336431</v>
       </c>
       <c r="C4">
-        <v>0.0080469436628659834</v>
+        <v>0.0076556099333703019</v>
       </c>
       <c r="D4">
-        <v>0.13687278688674742</v>
+        <v>0.13763978838000152</v>
       </c>
       <c r="E4">
-        <v>0.16841628717998119</v>
+        <v>0.1676492856867271</v>
       </c>
     </row>
     <row r="5">
@@ -312,13 +312,13 @@
         <v>-0.08050651863871805</v>
       </c>
       <c r="C5">
-        <v>0.0033993666233672979</v>
+        <v>0.0036733817881447243</v>
       </c>
       <c r="D5">
-        <v>-0.087169167225535624</v>
+        <v>-0.087706228082055554</v>
       </c>
       <c r="E5">
-        <v>-0.073843870051900476</v>
+        <v>-0.073306809195380546</v>
       </c>
     </row>
     <row r="6">
@@ -329,13 +329,13 @@
         <v>0.052555420623410738</v>
       </c>
       <c r="C6">
-        <v>0.0023524535481884903</v>
+        <v>0.0026857854078715716</v>
       </c>
       <c r="D6">
-        <v>0.047944687788460935</v>
+        <v>0.047291368129265467</v>
       </c>
       <c r="E6">
-        <v>0.057166153458360541</v>
+        <v>0.05781947311755601</v>
       </c>
     </row>
     <row r="7">
@@ -346,13 +346,13 @@
         <v>0.071692139581435901</v>
       </c>
       <c r="C7">
-        <v>0.0056070914608644775</v>
+        <v>0.0059599301564315253</v>
       </c>
       <c r="D7">
-        <v>0.060702421749565215</v>
+        <v>0.060010869323229486</v>
       </c>
       <c r="E7">
-        <v>0.082681857413306581</v>
+        <v>0.08337340983964231</v>
       </c>
     </row>
     <row r="8">
@@ -363,13 +363,13 @@
         <v>-0.23400773335865468</v>
       </c>
       <c r="C8">
-        <v>0.0049843625338476267</v>
+        <v>0.0053471701888918874</v>
       </c>
       <c r="D8">
-        <v>-0.24377692322968264</v>
+        <v>-0.2444880145366895</v>
       </c>
       <c r="E8">
-        <v>-0.22423854348762673</v>
+        <v>-0.22352745218061987</v>
       </c>
     </row>
     <row r="9">
@@ -380,13 +380,13 @@
         <v>0.18680527724265322</v>
       </c>
       <c r="C9">
-        <v>0.0027590478545884661</v>
+        <v>0.0029868444263396817</v>
       </c>
       <c r="D9">
-        <v>0.18139763239906667</v>
+        <v>0.18095115846257134</v>
       </c>
       <c r="E9">
-        <v>0.19221292208623977</v>
+        <v>0.1926593960227351</v>
       </c>
     </row>
     <row r="10">
@@ -397,13 +397,13 @@
         <v>0.15480815279338198</v>
       </c>
       <c r="C10">
-        <v>0.0090480825621482939</v>
+        <v>0.0097855600900077118</v>
       </c>
       <c r="D10">
-        <v>0.13707420268078249</v>
+        <v>0.1356287705023744</v>
       </c>
       <c r="E10">
-        <v>0.17254210290598146</v>
+        <v>0.17398753508438955</v>
       </c>
     </row>
     <row r="11">
@@ -414,13 +414,13 @@
         <v>-0.11634890942876018</v>
       </c>
       <c r="C11">
-        <v>0.0032372222466023372</v>
+        <v>0.0036981139429847899</v>
       </c>
       <c r="D11">
-        <v>-0.122693760283704</v>
+        <v>-0.12359709309531369</v>
       </c>
       <c r="E11">
-        <v>-0.11000405857381636</v>
+        <v>-0.10910072576220667</v>
       </c>
     </row>
     <row r="12">
@@ -431,13 +431,13 @@
         <v>0.098827816212832181</v>
       </c>
       <c r="C12">
-        <v>0.0025247715698797362</v>
+        <v>0.0028071393265849962</v>
       </c>
       <c r="D12">
-        <v>0.093879345631146749</v>
+        <v>0.093325913964717191</v>
       </c>
       <c r="E12">
-        <v>0.10377628679451761</v>
+        <v>0.10432971846094717</v>
       </c>
     </row>
     <row r="13">
@@ -448,13 +448,13 @@
         <v>0.090959079419366567</v>
       </c>
       <c r="C13">
-        <v>0.0060698063383603906</v>
+        <v>0.0062006837720826533</v>
       </c>
       <c r="D13">
-        <v>0.079062455399897383</v>
+        <v>0.078805939864667413</v>
       </c>
       <c r="E13">
-        <v>0.10285570343883575</v>
+        <v>0.10311221897406572</v>
       </c>
     </row>
     <row r="14">
@@ -465,13 +465,13 @@
         <v>-0.22975968811275235</v>
       </c>
       <c r="C14">
-        <v>0.0041807709061189189</v>
+        <v>0.0043243717923733341</v>
       </c>
       <c r="D14">
-        <v>-0.23795386430113991</v>
+        <v>-0.23823531740852141</v>
       </c>
       <c r="E14">
-        <v>-0.2215655119243648</v>
+        <v>-0.22128405881698329</v>
       </c>
     </row>
     <row r="15">
@@ -482,13 +482,13 @@
         <v>0.25748704716001219</v>
       </c>
       <c r="C15">
-        <v>0.0028337734542679266</v>
+        <v>0.0030690948099396606</v>
       </c>
       <c r="D15">
-        <v>0.25193294255019921</v>
+        <v>0.2514717202798179</v>
       </c>
       <c r="E15">
-        <v>0.26304115176982518</v>
+        <v>0.26350237404020649</v>
       </c>
     </row>
     <row r="16">
@@ -499,13 +499,13 @@
         <v>0.079363898242537867</v>
       </c>
       <c r="C16">
-        <v>0.0087702447123156908</v>
+        <v>0.0097840998351285298</v>
       </c>
       <c r="D16">
-        <v>0.06217450135814781</v>
+        <v>0.060187378004015038</v>
       </c>
       <c r="E16">
-        <v>0.096553295126927924</v>
+        <v>0.098540418481060696</v>
       </c>
     </row>
     <row r="17">
@@ -516,13 +516,13 @@
         <v>-0.13436223656825358</v>
       </c>
       <c r="C17">
-        <v>0.0031421290444190743</v>
+        <v>0.0030898194385543423</v>
       </c>
       <c r="D17">
-        <v>-0.14052070782389584</v>
+        <v>-0.14041818268900869</v>
       </c>
       <c r="E17">
-        <v>-0.12820376531261132</v>
+        <v>-0.12830629044749847</v>
       </c>
     </row>
     <row r="18">
@@ -533,13 +533,13 @@
         <v>0.14391411245492072</v>
       </c>
       <c r="C18">
-        <v>0.0027668719737981391</v>
+        <v>0.0028130138638081496</v>
       </c>
       <c r="D18">
-        <v>0.13849113291531739</v>
+        <v>0.13840069630393365</v>
       </c>
       <c r="E18">
-        <v>0.14933709199452405</v>
+        <v>0.1494275286059078</v>
       </c>
     </row>
     <row r="19">
@@ -550,13 +550,13 @@
         <v>0.092515231993750127</v>
       </c>
       <c r="C19">
-        <v>0.0065310053270641799</v>
+        <v>0.007182476620697543</v>
       </c>
       <c r="D19">
-        <v>0.079714672879664647</v>
+        <v>0.078437810224121191</v>
       </c>
       <c r="E19">
-        <v>0.10531579110783561</v>
+        <v>0.10659265376337906</v>
       </c>
     </row>
     <row r="20">
@@ -567,13 +567,13 @@
         <v>-0.20464924475422708</v>
       </c>
       <c r="C20">
-        <v>0.003660859694425389</v>
+        <v>0.003799887067565661</v>
       </c>
       <c r="D20">
-        <v>-0.211824411729577</v>
+        <v>-0.21209690089870434</v>
       </c>
       <c r="E20">
-        <v>-0.19747407777887716</v>
+        <v>-0.19720158860974982</v>
       </c>
     </row>
     <row r="21">
@@ -584,13 +584,13 @@
         <v>0.29697011679615293</v>
       </c>
       <c r="C21">
-        <v>0.0029605726905088743</v>
+        <v>0.003533722172674517</v>
       </c>
       <c r="D21">
-        <v>0.29116748977130147</v>
+        <v>0.29004413526453465</v>
       </c>
       <c r="E21">
-        <v>0.30277274382100439</v>
+        <v>0.3038960983277712</v>
       </c>
     </row>
     <row r="22">
@@ -601,13 +601,13 @@
         <v>0.013865777397149342</v>
       </c>
       <c r="C22">
-        <v>0.0085912290839792217</v>
+        <v>0.0076394559588215593</v>
       </c>
       <c r="D22">
-        <v>-0.0029727546271458936</v>
+        <v>-0.0011073099869003296</v>
       </c>
       <c r="E22">
-        <v>0.03070430942144458</v>
+        <v>0.028838864781199014</v>
       </c>
     </row>
     <row r="23">
@@ -618,13 +618,13 @@
         <v>-0.13544070058445148</v>
       </c>
       <c r="C23">
-        <v>0.0029267347348871852</v>
+        <v>0.0032074836554781216</v>
       </c>
       <c r="D23">
-        <v>-0.14117700596303115</v>
+        <v>-0.14172726476305811</v>
       </c>
       <c r="E23">
-        <v>-0.12970439520587182</v>
+        <v>-0.12915413640584486</v>
       </c>
     </row>
     <row r="24">
@@ -635,13 +635,13 @@
         <v>0.16581280688725653</v>
       </c>
       <c r="C24">
-        <v>0.0028606631839400844</v>
+        <v>0.0030436515990830493</v>
       </c>
       <c r="D24">
-        <v>0.16020599961062343</v>
+        <v>0.1598473482379896</v>
       </c>
       <c r="E24">
-        <v>0.17141961416388962</v>
+        <v>0.17177826553652345</v>
       </c>
     </row>
     <row r="25">
@@ -652,13 +652,13 @@
         <v>0.075267455317642992</v>
       </c>
       <c r="C25">
-        <v>0.006622149288301021</v>
+        <v>0.0064819346952084888</v>
       </c>
       <c r="D25">
-        <v>0.062288256988723409</v>
+        <v>0.062563073054192037</v>
       </c>
       <c r="E25">
-        <v>0.088246653646562576</v>
+        <v>0.087971837581093948</v>
       </c>
     </row>
     <row r="26">
@@ -669,13 +669,13 @@
         <v>-0.17861947591041044</v>
       </c>
       <c r="C26">
-        <v>0.00339105072945444</v>
+        <v>0.0029291122723972547</v>
       </c>
       <c r="D26">
-        <v>-0.18526582601302941</v>
+        <v>-0.18436044153004363</v>
       </c>
       <c r="E26">
-        <v>-0.17197312580779148</v>
+        <v>-0.17287851029077725</v>
       </c>
     </row>
     <row r="27">
@@ -686,13 +686,13 @@
         <v>0.30961473110705279</v>
       </c>
       <c r="C27">
-        <v>0.0031748136198210576</v>
+        <v>0.0036954250000925588</v>
       </c>
       <c r="D27">
-        <v>0.30339219876785406</v>
+        <v>0.30237181724697693</v>
       </c>
       <c r="E27">
-        <v>0.31583726344625151</v>
+        <v>0.31685764496712865</v>
       </c>
     </row>
     <row r="28">
@@ -703,13 +703,13 @@
         <v>-0.036188649413826712</v>
       </c>
       <c r="C28">
-        <v>0.008759648878189143</v>
+        <v>0.0078905737457774239</v>
       </c>
       <c r="D28">
-        <v>-0.053357278804937291</v>
+        <v>-0.051653919564299364</v>
       </c>
       <c r="E28">
-        <v>-0.01902002002271613</v>
+        <v>-0.020723379263354061</v>
       </c>
     </row>
     <row r="29">
@@ -720,13 +720,13 @@
         <v>-0.13401561457624683</v>
       </c>
       <c r="C29">
-        <v>0.0029288968040997627</v>
+        <v>0.0032715495931157964</v>
       </c>
       <c r="D29">
-        <v>-0.13975615754052401</v>
+        <v>-0.14042774591961016</v>
       </c>
       <c r="E29">
-        <v>-0.12827507161196966</v>
+        <v>-0.12760348323288351</v>
       </c>
     </row>
     <row r="30">
@@ -737,13 +737,13 @@
         <v>0.18425711247726678</v>
       </c>
       <c r="C30">
-        <v>0.0031651841445562612</v>
+        <v>0.0032997649455768913</v>
       </c>
       <c r="D30">
-        <v>0.17805345397136088</v>
+        <v>0.17778967995605779</v>
       </c>
       <c r="E30">
-        <v>0.19046077098317268</v>
+        <v>0.19072454499847577</v>
       </c>
     </row>
     <row r="31">
@@ -754,13 +754,13 @@
         <v>0.057419976799565939</v>
       </c>
       <c r="C31">
-        <v>0.00722138737202822</v>
+        <v>0.0075010098574879802</v>
       </c>
       <c r="D31">
-        <v>0.04326629121638325</v>
+        <v>0.042718240192764788</v>
       </c>
       <c r="E31">
-        <v>0.071573662382748621</v>
+        <v>0.072121713406367097</v>
       </c>
     </row>
     <row r="32">
@@ -771,13 +771,13 @@
         <v>-0.14932958267541563</v>
       </c>
       <c r="C32">
-        <v>0.0031383291014187315</v>
+        <v>0.0033613571877060496</v>
       </c>
       <c r="D32">
-        <v>-0.15548060653480278</v>
+        <v>-0.15591773439352435</v>
       </c>
       <c r="E32">
-        <v>-0.14317855881602848</v>
+        <v>-0.1427414309573069</v>
       </c>
     </row>
     <row r="33">
@@ -788,13 +788,13 @@
         <v>0.27338298526217641</v>
       </c>
       <c r="C33">
-        <v>0.0032840657916777031</v>
+        <v>0.0038620564454327697</v>
       </c>
       <c r="D33">
-        <v>0.26694632218841696</v>
+        <v>0.26581347914141368</v>
       </c>
       <c r="E33">
-        <v>0.27981964833593587</v>
+        <v>0.28095249138293915</v>
       </c>
     </row>
     <row r="34">
@@ -805,13 +805,13 @@
         <v>-0.072668202623170045</v>
       </c>
       <c r="C34">
-        <v>0.0086118897771779186</v>
+        <v>0.0081782655104678387</v>
       </c>
       <c r="D34">
-        <v>-0.089547228940036194</v>
+        <v>-0.088697339357284272</v>
       </c>
       <c r="E34">
-        <v>-0.055789176306303895</v>
+        <v>-0.05663906588905581</v>
       </c>
     </row>
     <row r="35">
@@ -822,13 +822,13 @@
         <v>-0.11624772120932625</v>
       </c>
       <c r="C35">
-        <v>0.0028148635300886318</v>
+        <v>0.0026388229038821517</v>
       </c>
       <c r="D35">
-        <v>-0.1217647626463725</v>
+        <v>-0.12141972871524116</v>
       </c>
       <c r="E35">
-        <v>-0.11073067977228</v>
+        <v>-0.11107571370341134</v>
       </c>
     </row>
     <row r="36">
@@ -839,13 +839,13 @@
         <v>0.17421124312382033</v>
       </c>
       <c r="C36">
-        <v>0.0033318940299028646</v>
+        <v>0.0033159146440763627</v>
       </c>
       <c r="D36">
-        <v>0.16768083863694905</v>
+        <v>0.16771215771611614</v>
       </c>
       <c r="E36">
-        <v>0.18074164761069161</v>
+        <v>0.18071032853152452</v>
       </c>
     </row>
     <row r="37">
@@ -856,13 +856,13 @@
         <v>0.036145333795582969</v>
       </c>
       <c r="C37">
-        <v>0.0075162082658978887</v>
+        <v>0.0067342937949270093</v>
       </c>
       <c r="D37">
-        <v>0.021413808800080793</v>
+        <v>0.022946335862391556</v>
       </c>
       <c r="E37">
-        <v>0.050876858791085146</v>
+        <v>0.049344331728774379</v>
       </c>
     </row>
     <row r="38">
@@ -873,13 +873,13 @@
         <v>-0.13424321856461993</v>
       </c>
       <c r="C38">
-        <v>0.003219635727704485</v>
+        <v>0.0033969859716475106</v>
       </c>
       <c r="D38">
-        <v>-0.14055360079021026</v>
+        <v>-0.14090120155058575</v>
       </c>
       <c r="E38">
-        <v>-0.1279328363390296</v>
+        <v>-0.12758523557865412</v>
       </c>
     </row>
     <row r="39">
@@ -890,13 +890,13 @@
         <v>0.2096707101331087</v>
       </c>
       <c r="C39">
-        <v>0.0035780295414315935</v>
+        <v>0.0042886167333513669</v>
       </c>
       <c r="D39">
-        <v>0.20265788758719136</v>
+        <v>0.20126515960028343</v>
       </c>
       <c r="E39">
-        <v>0.21668353267902604</v>
+        <v>0.21807626066593397</v>
       </c>
     </row>
     <row r="40">
@@ -907,13 +907,13 @@
         <v>-0.080753835439181201</v>
       </c>
       <c r="C40">
-        <v>0.0089050522530341042</v>
+        <v>0.0083392265735070768</v>
       </c>
       <c r="D40">
-        <v>-0.098207450757198694</v>
+        <v>-0.097098450667484931</v>
       </c>
       <c r="E40">
-        <v>-0.063300220121163708</v>
+        <v>-0.064409220210877471</v>
       </c>
     </row>
     <row r="41">
@@ -924,13 +924,13 @@
         <v>-0.10429282752037414</v>
       </c>
       <c r="C41">
-        <v>0.0029455391980534812</v>
+        <v>0.0028996019366023143</v>
       </c>
       <c r="D41">
-        <v>-0.11006598903829445</v>
+        <v>-0.10997595349226479</v>
       </c>
       <c r="E41">
-        <v>-0.098519666002453821</v>
+        <v>-0.098609701548483489</v>
       </c>
     </row>
     <row r="42">
@@ -941,13 +941,13 @@
         <v>0.15879694109617012</v>
       </c>
       <c r="C42">
-        <v>0.0037147631256972363</v>
+        <v>0.0034469178619957962</v>
       </c>
       <c r="D42">
-        <v>0.15151612557022603</v>
+        <v>0.15204109362027957</v>
       </c>
       <c r="E42">
-        <v>0.16607775662211421</v>
+        <v>0.16555278857206068</v>
       </c>
     </row>
     <row r="43">
@@ -958,13 +958,13 @@
         <v>0.0024578771093723855</v>
       </c>
       <c r="C43">
-        <v>0.0082825162760759487</v>
+        <v>0.0080828040459940253</v>
       </c>
       <c r="D43">
-        <v>-0.013775586790272578</v>
+        <v>-0.013384157281499132</v>
       </c>
       <c r="E43">
-        <v>0.01869134100901735</v>
+        <v>0.018299911500243904</v>
       </c>
     </row>
     <row r="44">
@@ -975,13 +975,13 @@
         <v>-0.12270543176395916</v>
       </c>
       <c r="C44">
-        <v>0.0033980907465031586</v>
+        <v>0.0038306482657553959</v>
       </c>
       <c r="D44">
-        <v>-0.12936558007302423</v>
+        <v>-0.13021337886515058</v>
       </c>
       <c r="E44">
-        <v>-0.11604528345489411</v>
+        <v>-0.11519748466276775</v>
       </c>
     </row>
     <row r="45">
@@ -992,13 +992,13 @@
         <v>0.093486384552233528</v>
       </c>
       <c r="C45">
-        <v>0.0037343649703510348</v>
+        <v>0.003784285080706367</v>
       </c>
       <c r="D45">
-        <v>0.086167149605871532</v>
+        <v>0.086069307798994091</v>
       </c>
       <c r="E45">
-        <v>0.10080561949859553</v>
+        <v>0.10090346130547297</v>
       </c>
     </row>
     <row r="46">
@@ -1009,13 +1009,13 @@
         <v>-0.040763452088517081</v>
       </c>
       <c r="C46">
-        <v>0.0088330611513038858</v>
+        <v>0.007890396473709713</v>
       </c>
       <c r="D46">
-        <v>-0.058075967168128753</v>
+        <v>-0.056228374791452256</v>
       </c>
       <c r="E46">
-        <v>-0.023450937008905413</v>
+        <v>-0.025298529385581907</v>
       </c>
     </row>
     <row r="47">
@@ -1026,13 +1026,13 @@
         <v>-0.089564483846114526</v>
       </c>
       <c r="C47">
-        <v>0.0032199918468140518</v>
+        <v>0.0033138101986740676</v>
       </c>
       <c r="D47">
-        <v>-0.095875563675005854</v>
+        <v>-0.096059444608924807</v>
       </c>
       <c r="E47">
-        <v>-0.083253404017223198</v>
+        <v>-0.083069523083304245</v>
       </c>
     </row>
     <row r="48">
@@ -1043,13 +1043,13 @@
         <v>0.12712963168739472</v>
       </c>
       <c r="C48">
-        <v>0.0042853762058696534</v>
+        <v>0.0046996977894430544</v>
       </c>
       <c r="D48">
-        <v>0.11873043298792155</v>
+        <v>0.1179183760905255</v>
       </c>
       <c r="E48">
-        <v>0.13552883038686789</v>
+        <v>0.13634088728426394</v>
       </c>
     </row>
     <row r="49">
@@ -1060,13 +1060,13 @@
         <v>-0.02830752608627763</v>
       </c>
       <c r="C49">
-        <v>0.0092274731408528068</v>
+        <v>0.0092971174316332002</v>
       </c>
       <c r="D49">
-        <v>-0.046393074864449935</v>
+        <v>-0.046529575420864833</v>
       </c>
       <c r="E49">
-        <v>-0.01022197730810533</v>
+        <v>-0.010085476751690425</v>
       </c>
     </row>
     <row r="50">
@@ -1077,13 +1077,13 @@
         <v>-0.1023768530504954</v>
       </c>
       <c r="C50">
-        <v>0.0036034088894506167</v>
+        <v>0.0037635569967321837</v>
       </c>
       <c r="D50">
-        <v>-0.10943941830030257</v>
+        <v>-0.10975330342741664</v>
       </c>
       <c r="E50">
-        <v>-0.095314287800688235</v>
+        <v>-0.095000402673574166</v>
       </c>
     </row>
     <row r="51">
@@ -1094,13 +1094,13 @@
         <v>-0.0048583653088437716</v>
       </c>
       <c r="C51">
-        <v>0.0036653599854777814</v>
+        <v>0.0034141793247744476</v>
       </c>
       <c r="D51">
-        <v>-0.012042352709567494</v>
+        <v>-0.011550046712626516</v>
       </c>
       <c r="E51">
-        <v>0.0023256220918799518</v>
+        <v>0.0018333160949389731</v>
       </c>
     </row>
     <row r="52">
@@ -1111,13 +1111,13 @@
         <v>0.022556672560105961</v>
       </c>
       <c r="C52">
-        <v>0.0084151884827086843</v>
+        <v>0.0086041682097044922</v>
       </c>
       <c r="D52">
-        <v>0.0060631744387708783</v>
+        <v>0.0056927802665452214</v>
       </c>
       <c r="E52">
-        <v>0.039050170681441045</v>
+        <v>0.039420564853666698</v>
       </c>
     </row>
     <row r="53">
@@ -1128,13 +1128,13 @@
         <v>-0.07047784975920611</v>
       </c>
       <c r="C53">
-        <v>0.0038723020418311785</v>
+        <v>0.0038356805998852701</v>
       </c>
       <c r="D53">
-        <v>-0.078067436463208323</v>
+        <v>-0.077995659621972399</v>
       </c>
       <c r="E53">
-        <v>-0.062888263055203897</v>
+        <v>-0.062960039896439821</v>
       </c>
     </row>
     <row r="54">
@@ -1145,13 +1145,13 @@
         <v>0.065378953403071413</v>
       </c>
       <c r="C54">
-        <v>0.0053416541052417601</v>
+        <v>0.0053744408982343631</v>
       </c>
       <c r="D54">
-        <v>0.054909484199333829</v>
+        <v>0.054845223145966758</v>
       </c>
       <c r="E54">
-        <v>0.075848422606808991</v>
+        <v>0.075912683660176061</v>
       </c>
     </row>
     <row r="55">
@@ -1162,13 +1162,13 @@
         <v>-0.034296215605137147</v>
       </c>
       <c r="C55">
-        <v>0.010950843475198471</v>
+        <v>0.011021502910017937</v>
       </c>
       <c r="D55">
-        <v>-0.055759514474683108</v>
+        <v>-0.05589800468056709</v>
       </c>
       <c r="E55">
-        <v>-0.012832916735591181</v>
+        <v>-0.012694426529707207</v>
       </c>
     </row>
   </sheetData>
